--- a/Public CDN/sample-import-students.xlsx
+++ b/Public CDN/sample-import-students.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaust\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12D5D2C8-16C4-4B6A-ADE8-82D0BFCD62F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCB3120-5B60-4E95-82AF-FB8336140346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample-import-students" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>userID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>email</t>
   </si>
@@ -46,34 +43,13 @@
     <t>contactNo</t>
   </si>
   <si>
-    <t>alternateContactNo</t>
-  </si>
-  <si>
-    <t>altenateContactPerson</t>
-  </si>
-  <si>
-    <t>localAddress</t>
-  </si>
-  <si>
-    <t>permanentAddress</t>
-  </si>
-  <si>
     <t>dob</t>
-  </si>
-  <si>
-    <t>linkedInProfile</t>
-  </si>
-  <si>
-    <t>gitHubProfile</t>
-  </si>
-  <si>
-    <t>blog</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -907,14 +883,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -939,30 +917,6 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
